--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="40">
   <si>
     <t>UID</t>
   </si>
@@ -64,13 +64,76 @@
     <t>A2</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
     <t>DNA ligase</t>
   </si>
   <si>
     <t>BsaI-HF</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -515,13 +578,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -535,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -544,13 +607,13 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -564,22 +627,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -593,22 +656,1936 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>500</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>500</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>500</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>500</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>500</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>500</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>500</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>500</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21">
+        <v>500</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>500</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24">
+        <v>500</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>500</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>125</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>125</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>125</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>125</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>125</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>125</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>125</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>125</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38">
+        <v>125</v>
+      </c>
+      <c r="I38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39">
+        <v>125</v>
+      </c>
+      <c r="I39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40">
+        <v>125</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41">
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>125</v>
+      </c>
+      <c r="I42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43">
+        <v>125</v>
+      </c>
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44">
+        <v>125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45">
+        <v>125</v>
+      </c>
+      <c r="I45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46">
+        <v>125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48">
+        <v>125</v>
+      </c>
+      <c r="I48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49">
+        <v>125</v>
+      </c>
+      <c r="I49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
         <v>250</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>250</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>250</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53">
+        <v>250</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54">
+        <v>250</v>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>250</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>250</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57">
+        <v>250</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58">
+        <v>250</v>
+      </c>
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <v>250</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60">
+        <v>250</v>
+      </c>
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61">
+        <v>250</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62">
+        <v>250</v>
+      </c>
+      <c r="I62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63">
+        <v>250</v>
+      </c>
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64">
+        <v>250</v>
+      </c>
+      <c r="I64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65">
+        <v>250</v>
+      </c>
+      <c r="I65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66">
+        <v>250</v>
+      </c>
+      <c r="I66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>250</v>
+      </c>
+      <c r="I67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68">
+        <v>250</v>
+      </c>
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69">
+        <v>250</v>
+      </c>
+      <c r="I69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <v>250</v>
+      </c>
+      <c r="I70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>250</v>
+      </c>
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72">
+        <v>250</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73">
+        <v>250</v>
+      </c>
+      <c r="I73" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
   <si>
     <t>UID</t>
   </si>
@@ -64,13 +64,28 @@
     <t>A2</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
     <t>DNA ligase</t>
   </si>
   <si>
     <t>BsaI-HF</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +521,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -515,13 +530,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -535,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -544,13 +559,13 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -564,22 +579,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -593,22 +608,544 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>125</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>125</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H14">
+        <v>125</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
         <v>250</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>250</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20">
+        <v>250</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
         <v>17</v>
+      </c>
+      <c r="H21">
+        <v>250</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>250</v>
+      </c>
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>250</v>
+      </c>
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>250</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>250</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>UID</t>
   </si>
@@ -68,18 +68,6 @@
   </si>
   <si>
     <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
   </si>
   <si>
     <t>DNA ligase</t>
@@ -417,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,22 +567,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -608,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -617,13 +605,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -637,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -646,13 +634,13 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -666,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -675,13 +663,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -695,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -707,10 +695,10 @@
         <v>11</v>
       </c>
       <c r="H10">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -724,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -736,10 +724,10 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -753,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -765,10 +753,10 @@
         <v>16</v>
       </c>
       <c r="H12">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -782,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -794,358 +782,10 @@
         <v>17</v>
       </c>
       <c r="H13">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
         <v>19</v>
-      </c>
-      <c r="H15">
-        <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <v>125</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>250</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>250</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>250</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>250</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22">
-        <v>250</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23">
-        <v>250</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>250</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25">
-        <v>250</v>
-      </c>
-      <c r="I25" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
   <si>
     <t>UID</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
   </si>
   <si>
     <t>DNA ligase</t>
@@ -405,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -576,13 +582,13 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -596,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -605,13 +611,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -634,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -663,13 +669,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -683,22 +689,22 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
       <c r="H10">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -712,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -721,13 +727,13 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -741,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -750,13 +756,13 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -770,22 +776,196 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>250</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>250</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>250</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>250</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>250</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>19</v>
+      </c>
+      <c r="H19">
+        <v>250</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>UID</t>
   </si>
@@ -64,22 +64,13 @@
     <t>A2</t>
   </si>
   <si>
+    <t>DNA ligase</t>
+  </si>
+  <si>
+    <t>BsaI-HF</t>
+  </si>
+  <si>
     <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>DNA ligase</t>
-  </si>
-  <si>
-    <t>BsaI-HF</t>
   </si>
 </sst>
 </file>
@@ -411,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -524,13 +515,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4">
-        <v>500</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -544,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -553,13 +544,13 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -573,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -582,13 +573,13 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -602,7 +593,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -611,361 +602,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>125</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>125</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>125</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
         <v>17</v>
-      </c>
-      <c r="H11">
-        <v>125</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>125</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>250</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15">
-        <v>250</v>
-      </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>250</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <v>250</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18">
-        <v>250</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19">
-        <v>250</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ldv.xlsx
+++ b/ldv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>UID</t>
   </si>
@@ -64,13 +64,16 @@
     <t>A2</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>DNA ligase</t>
   </si>
   <si>
     <t>BsaI-HF</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -515,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -535,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -544,13 +547,13 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -564,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -576,10 +579,10 @@
         <v>11</v>
       </c>
       <c r="H6">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -593,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -605,10 +608,184 @@
         <v>15</v>
       </c>
       <c r="H7">
+        <v>125</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>125</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
         <v>250</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>250</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
